--- a/2-Sql/Pushpinder's notes/Notes/Normalization.xlsx
+++ b/2-Sql/Pushpinder's notes/Notes/Normalization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\210329-uta-uipath\training-code\2-Sql\Pushpinder's notes\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98715B3-203A-4733-B0C2-0FCFE26FAF65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE3248-FA72-496F-BB84-A687188B2F2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AF875415-D93C-492D-BD32-EB3DA5BDD26E}"/>
+    <workbookView minimized="1" xWindow="5620" yWindow="940" windowWidth="6410" windowHeight="3270" xr2:uid="{AF875415-D93C-492D-BD32-EB3DA5BDD26E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,10 +175,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24680DC7-265D-4AC1-B66D-EB9500E1C4DD}">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,12 +658,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -755,12 +755,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -912,12 +912,12 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
